--- a/src/test/resources/Financial_AuditTrial_Data.xlsx
+++ b/src/test/resources/Financial_AuditTrial_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28620" windowHeight="13170" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="20610" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="auditTrial" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="133">
   <si>
     <t>fitchFieldId</t>
   </si>
@@ -385,9 +385,6 @@
   </si>
   <si>
     <t>FC_NON_INT_EXP_GROSS_REV_BNK</t>
-  </si>
-  <si>
-    <t>FC_LOANS_SECURITIES_IMPAIRMENT_PRE_IMPAIRMENT_OPER_PROFIT_BNK</t>
   </si>
   <si>
     <t>FC_OPER_PROFIT_RISK_WEIGHTED_ASSETS_BNK</t>
@@ -792,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B132"/>
+  <dimension ref="A1:B131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F116" sqref="F116"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123:XFD123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,7 +814,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -825,7 +822,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -833,7 +830,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -841,7 +838,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -849,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -857,7 +854,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -865,7 +862,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -873,7 +870,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -881,7 +878,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -889,7 +886,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -897,7 +894,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -905,7 +902,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -913,7 +910,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -921,7 +918,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -929,7 +926,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -937,7 +934,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -945,7 +942,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -953,7 +950,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -961,7 +958,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -969,7 +966,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -977,7 +974,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -985,7 +982,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -993,7 +990,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1001,7 +998,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1009,7 +1006,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1017,7 +1014,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1025,7 +1022,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1033,7 +1030,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1041,7 +1038,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1049,7 +1046,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1057,7 +1054,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1065,7 +1062,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1073,7 +1070,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1081,7 +1078,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1089,7 +1086,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1097,7 +1094,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1105,7 +1102,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1113,7 +1110,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1121,7 +1118,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1129,7 +1126,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1137,7 +1134,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1145,7 +1142,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1153,7 +1150,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1161,7 +1158,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1169,7 +1166,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1177,7 +1174,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1185,7 +1182,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1193,7 +1190,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1201,7 +1198,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1209,7 +1206,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1217,7 +1214,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1225,7 +1222,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1233,7 +1230,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1241,7 +1238,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1249,7 +1246,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1257,7 +1254,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1265,7 +1262,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1273,7 +1270,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1281,7 +1278,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1289,7 +1286,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1297,7 +1294,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1305,7 +1302,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1313,7 +1310,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1321,7 +1318,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1329,7 +1326,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1337,7 +1334,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1345,7 +1342,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1353,7 +1350,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1361,7 +1358,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1369,7 +1366,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1377,7 +1374,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1385,7 +1382,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1393,7 +1390,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1401,7 +1398,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1409,7 +1406,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1417,7 +1414,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1425,7 +1422,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1433,7 +1430,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1441,7 +1438,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1449,7 +1446,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1457,7 +1454,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1465,7 +1462,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1473,7 +1470,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1481,7 +1478,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1489,7 +1486,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1497,7 +1494,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1505,7 +1502,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1513,7 +1510,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1521,7 +1518,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1529,7 +1526,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1537,7 +1534,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1545,7 +1542,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1553,7 +1550,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1561,7 +1558,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1569,7 +1566,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1577,7 +1574,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1585,7 +1582,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1593,7 +1590,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1601,7 +1598,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1609,7 +1606,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1617,7 +1614,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1625,7 +1622,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1633,7 +1630,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1641,7 +1638,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1649,7 +1646,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1657,7 +1654,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1665,7 +1662,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1673,7 +1670,7 @@
         <v>109</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1681,7 +1678,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1689,7 +1686,7 @@
         <v>111</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1697,7 +1694,7 @@
         <v>112</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1705,7 +1702,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1713,7 +1710,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1721,7 +1718,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1729,7 +1726,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1737,7 +1734,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -1745,7 +1742,7 @@
         <v>118</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1753,7 +1750,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1761,7 +1758,7 @@
         <v>120</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1769,7 +1766,7 @@
         <v>121</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1777,7 +1774,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1785,7 +1782,7 @@
         <v>123</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1793,7 +1790,7 @@
         <v>124</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1801,7 +1798,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1809,7 +1806,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1817,7 +1814,7 @@
         <v>127</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1825,7 +1822,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1833,7 +1830,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -1841,7 +1838,7 @@
         <v>130</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -1849,23 +1846,15 @@
         <v>131</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A132">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="A1:A131">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>IF(FIND(" ",$A1)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1876,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/Financial_AuditTrial_Data.xlsx
+++ b/src/test/resources/Financial_AuditTrial_Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="132">
   <si>
     <t>fitchFieldId</t>
   </si>
@@ -382,9 +382,6 @@
   </si>
   <si>
     <t>FC_NET_INT_INC_AVG_EARNING_ASSETS_BNK</t>
-  </si>
-  <si>
-    <t>FC_NON_INT_EXP_GROSS_REV_BNK</t>
   </si>
   <si>
     <t>FC_OPER_PROFIT_RISK_WEIGHTED_ASSETS_BNK</t>
@@ -789,16 +786,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B131"/>
+  <dimension ref="A1:B130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123:XFD123"/>
+      <selection activeCell="A122" sqref="A122:XFD122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="45.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -814,7 +811,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -822,7 +819,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -830,7 +827,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -838,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -846,7 +843,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -854,7 +851,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -862,7 +859,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -870,7 +867,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -878,7 +875,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -886,7 +883,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -894,7 +891,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -902,7 +899,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -910,7 +907,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -918,7 +915,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -926,7 +923,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -934,7 +931,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -942,7 +939,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -950,7 +947,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -958,7 +955,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -966,7 +963,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -974,7 +971,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -982,7 +979,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -990,7 +987,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -998,7 +995,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1006,7 +1003,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1014,7 +1011,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1022,7 +1019,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1030,7 +1027,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1038,7 +1035,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1046,7 +1043,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1054,7 +1051,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1062,7 +1059,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1070,7 +1067,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1078,7 +1075,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1086,7 +1083,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1094,7 +1091,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1102,7 +1099,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1110,7 +1107,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1118,7 +1115,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1126,7 +1123,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1134,7 +1131,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1142,7 +1139,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1150,7 +1147,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1158,7 +1155,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1166,7 +1163,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1174,7 +1171,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1182,7 +1179,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1190,7 +1187,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1198,7 +1195,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1206,7 +1203,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1214,7 +1211,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1222,7 +1219,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1230,7 +1227,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1238,7 +1235,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1246,7 +1243,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1254,7 +1251,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1262,7 +1259,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1270,7 +1267,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1278,7 +1275,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1286,7 +1283,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1294,7 +1291,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1302,7 +1299,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1310,7 +1307,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1318,7 +1315,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1326,7 +1323,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1334,7 +1331,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1342,7 +1339,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1350,7 +1347,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1358,7 +1355,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1366,7 +1363,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1374,7 +1371,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1382,7 +1379,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1390,7 +1387,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1398,7 +1395,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1406,7 +1403,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1414,7 +1411,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1422,7 +1419,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1430,7 +1427,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1438,7 +1435,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1446,7 +1443,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1454,7 +1451,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1462,7 +1459,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1470,7 +1467,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1478,7 +1475,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1486,7 +1483,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1494,7 +1491,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1502,7 +1499,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1510,7 +1507,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1518,7 +1515,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1526,7 +1523,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1534,7 +1531,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1542,7 +1539,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1550,7 +1547,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1558,7 +1555,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1566,7 +1563,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1574,7 +1571,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1582,7 +1579,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1590,7 +1587,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1598,7 +1595,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1606,7 +1603,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1614,7 +1611,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1622,7 +1619,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1630,7 +1627,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1638,7 +1635,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1646,7 +1643,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1654,7 +1651,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1662,7 +1659,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1670,7 +1667,7 @@
         <v>109</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1678,7 +1675,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1686,7 +1683,7 @@
         <v>111</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1694,7 +1691,7 @@
         <v>112</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1702,7 +1699,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1710,7 +1707,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1718,7 +1715,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1726,7 +1723,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1734,7 +1731,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -1742,7 +1739,7 @@
         <v>118</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1750,7 +1747,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1758,7 +1755,7 @@
         <v>120</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1766,7 +1763,7 @@
         <v>121</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1774,7 +1771,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1782,7 +1779,7 @@
         <v>123</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1790,7 +1787,7 @@
         <v>124</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1798,7 +1795,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1806,7 +1803,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1814,7 +1811,7 @@
         <v>127</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1822,7 +1819,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1830,7 +1827,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -1838,23 +1835,15 @@
         <v>130</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A131">
-    <cfRule type="expression" dxfId="1" priority="3">
+  <conditionalFormatting sqref="A1:A130">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>IF(FIND(" ",$A1)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1869,7 +1858,7 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1881,7 +1870,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/Financial_AuditTrial_Data.xlsx
+++ b/src/test/resources/Financial_AuditTrial_Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="131">
   <si>
     <t>fitchFieldId</t>
   </si>
@@ -388,9 +388,6 @@
   </si>
   <si>
     <t>FC_TANGIBLE_COMMON_EQUITY_TANGIBLE_ASSETS_BNK</t>
-  </si>
-  <si>
-    <t>FC_NET_INCOME_MINUS_CASH_DIV_TOTAL_EQUITY_BNK</t>
   </si>
   <si>
     <t>FC_NPL_GROSS_LOANS_BNK</t>
@@ -786,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B130"/>
+  <dimension ref="A1:B129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122:XFD122"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -811,7 +808,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -819,7 +816,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -827,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -835,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -843,7 +840,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -851,7 +848,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -859,7 +856,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -867,7 +864,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -875,7 +872,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -883,7 +880,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -891,7 +888,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -899,7 +896,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -907,7 +904,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -915,7 +912,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -923,7 +920,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -931,7 +928,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -939,7 +936,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -947,7 +944,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -955,7 +952,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -963,7 +960,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -971,7 +968,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -979,7 +976,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -987,7 +984,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -995,7 +992,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1003,7 +1000,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1011,7 +1008,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1019,7 +1016,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1027,7 +1024,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1035,7 +1032,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1043,7 +1040,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1051,7 +1048,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1059,7 +1056,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1067,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1075,7 +1072,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1083,7 +1080,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1091,7 +1088,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1099,7 +1096,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1107,7 +1104,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1115,7 +1112,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1123,7 +1120,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1131,7 +1128,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1139,7 +1136,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1147,7 +1144,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1155,7 +1152,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1163,7 +1160,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1171,7 +1168,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1179,7 +1176,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1187,7 +1184,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1195,7 +1192,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1203,7 +1200,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1211,7 +1208,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1219,7 +1216,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1227,7 +1224,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1235,7 +1232,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1243,7 +1240,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1251,7 +1248,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1259,7 +1256,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1267,7 +1264,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1275,7 +1272,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1283,7 +1280,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1291,7 +1288,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1299,7 +1296,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1307,7 +1304,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1315,7 +1312,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1323,7 +1320,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1331,7 +1328,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1339,7 +1336,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1347,7 +1344,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1355,7 +1352,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1363,7 +1360,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1371,7 +1368,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1379,7 +1376,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1387,7 +1384,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1395,7 +1392,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1403,7 +1400,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1411,7 +1408,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1419,7 +1416,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1427,7 +1424,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1435,7 +1432,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1443,7 +1440,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1451,7 +1448,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1459,7 +1456,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1467,7 +1464,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1475,7 +1472,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1483,7 +1480,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1491,7 +1488,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1499,7 +1496,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1507,7 +1504,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1515,7 +1512,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1523,7 +1520,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1531,7 +1528,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1539,7 +1536,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1547,7 +1544,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1555,7 +1552,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1563,7 +1560,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1571,7 +1568,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1579,7 +1576,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1587,7 +1584,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1595,7 +1592,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1603,7 +1600,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1611,7 +1608,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1619,7 +1616,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1627,7 +1624,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1635,7 +1632,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1643,7 +1640,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1651,7 +1648,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1659,7 +1656,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1667,7 +1664,7 @@
         <v>109</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1675,7 +1672,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1683,7 +1680,7 @@
         <v>111</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1691,7 +1688,7 @@
         <v>112</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1699,7 +1696,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1707,7 +1704,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1715,7 +1712,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1723,7 +1720,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1731,7 +1728,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -1739,7 +1736,7 @@
         <v>118</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1747,7 +1744,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1755,7 +1752,7 @@
         <v>120</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1763,7 +1760,7 @@
         <v>121</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1771,7 +1768,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1779,7 +1776,7 @@
         <v>123</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1787,7 +1784,7 @@
         <v>124</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1795,7 +1792,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1803,7 +1800,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1811,7 +1808,7 @@
         <v>127</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1819,7 +1816,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1827,23 +1824,15 @@
         <v>129</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A130">
-    <cfRule type="expression" dxfId="1" priority="5">
+  <conditionalFormatting sqref="A1:A129">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>IF(FIND(" ",$A1)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
